--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/word_level_predictions_17.xlsx
@@ -1074,210 +1074,210 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Restricted</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>2</v>
-      </c>
-      <c r="E262" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>3</v>
-      </c>
-      <c r="E263" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>4</v>
-      </c>
-      <c r="E264" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F269" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>20</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>3</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
+      <c r="F483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>4</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/17/word_level_predictions_17.xlsx
@@ -1074,210 +1074,210 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Restricted</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Restricted</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13918,728 +13918,728 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,106 +25514,106 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
+      <c r="F483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F484" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
